--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Timp3-Agtr2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Timp3-Agtr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.03434965166764</v>
+        <v>86.43264233333333</v>
       </c>
       <c r="H2">
-        <v>9.03434965166764</v>
+        <v>259.297927</v>
       </c>
       <c r="I2">
-        <v>0.09447657007089819</v>
+        <v>0.4989038832435519</v>
       </c>
       <c r="J2">
-        <v>0.09447657007089819</v>
+        <v>0.4989038832435519</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.0937663472954</v>
+        <v>64.154275</v>
       </c>
       <c r="N2">
-        <v>64.0937663472954</v>
+        <v>192.462825</v>
       </c>
       <c r="O2">
-        <v>0.971972946231151</v>
+        <v>0.9711753522845754</v>
       </c>
       <c r="P2">
-        <v>0.971972946231151</v>
+        <v>0.9711753522845754</v>
       </c>
       <c r="Q2">
-        <v>579.0454956737552</v>
+        <v>5545.023505229308</v>
       </c>
       <c r="R2">
-        <v>579.0454956737552</v>
+        <v>49905.21154706378</v>
       </c>
       <c r="S2">
-        <v>0.0918286701616247</v>
+        <v>0.4845231545651992</v>
       </c>
       <c r="T2">
-        <v>0.0918286701616247</v>
+        <v>0.4845231545651992</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.03434965166764</v>
+        <v>86.43264233333333</v>
       </c>
       <c r="H3">
-        <v>9.03434965166764</v>
+        <v>259.297927</v>
       </c>
       <c r="I3">
-        <v>0.09447657007089819</v>
+        <v>0.4989038832435519</v>
       </c>
       <c r="J3">
-        <v>0.09447657007089819</v>
+        <v>0.4989038832435519</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.84815785524599</v>
+        <v>1.904109666666667</v>
       </c>
       <c r="N3">
-        <v>1.84815785524599</v>
+        <v>5.712329</v>
       </c>
       <c r="O3">
-        <v>0.02802705376884896</v>
+        <v>0.02882464771542451</v>
       </c>
       <c r="P3">
-        <v>0.02802705376884896</v>
+        <v>0.02882464771542451</v>
       </c>
       <c r="Q3">
-        <v>16.69690427576842</v>
+        <v>164.5772297824426</v>
       </c>
       <c r="R3">
-        <v>16.69690427576842</v>
+        <v>1481.195068041983</v>
       </c>
       <c r="S3">
-        <v>0.00264789990927349</v>
+        <v>0.01438072867835266</v>
       </c>
       <c r="T3">
-        <v>0.00264789990927349</v>
+        <v>0.01438072867835266</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.5031936888759</v>
+        <v>31.60427266666667</v>
       </c>
       <c r="H4">
-        <v>31.5031936888759</v>
+        <v>94.81281800000001</v>
       </c>
       <c r="I4">
-        <v>0.329444154893293</v>
+        <v>0.1824252265675234</v>
       </c>
       <c r="J4">
-        <v>0.329444154893293</v>
+        <v>0.1824252265675234</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>64.0937663472954</v>
+        <v>64.154275</v>
       </c>
       <c r="N4">
-        <v>64.0937663472954</v>
+        <v>192.462825</v>
       </c>
       <c r="O4">
-        <v>0.971972946231151</v>
+        <v>0.9711753522845754</v>
       </c>
       <c r="P4">
-        <v>0.971972946231151</v>
+        <v>0.9711753522845754</v>
       </c>
       <c r="Q4">
-        <v>2019.158335488403</v>
+        <v>2027.549199832317</v>
       </c>
       <c r="R4">
-        <v>2019.158335488403</v>
+        <v>18247.94279849085</v>
       </c>
       <c r="S4">
-        <v>0.3202108058502657</v>
+        <v>0.177166883677308</v>
       </c>
       <c r="T4">
-        <v>0.3202108058502657</v>
+        <v>0.177166883677308</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.5031936888759</v>
+        <v>31.60427266666667</v>
       </c>
       <c r="H5">
-        <v>31.5031936888759</v>
+        <v>94.81281800000001</v>
       </c>
       <c r="I5">
-        <v>0.329444154893293</v>
+        <v>0.1824252265675234</v>
       </c>
       <c r="J5">
-        <v>0.329444154893293</v>
+        <v>0.1824252265675234</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.84815785524599</v>
+        <v>1.904109666666667</v>
       </c>
       <c r="N5">
-        <v>1.84815785524599</v>
+        <v>5.712329</v>
       </c>
       <c r="O5">
-        <v>0.02802705376884896</v>
+        <v>0.02882464771542451</v>
       </c>
       <c r="P5">
-        <v>0.02802705376884896</v>
+        <v>0.02882464771542451</v>
       </c>
       <c r="Q5">
-        <v>58.22287488143189</v>
+        <v>60.17800109256913</v>
       </c>
       <c r="R5">
-        <v>58.22287488143189</v>
+        <v>541.6020098331221</v>
       </c>
       <c r="S5">
-        <v>0.009233349043027328</v>
+        <v>0.005258342890215362</v>
       </c>
       <c r="T5">
-        <v>0.009233349043027328</v>
+        <v>0.005258342890215361</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +770,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -779,49 +782,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>55.0877492043486</v>
+        <v>0.02528933333333333</v>
       </c>
       <c r="H6">
-        <v>55.0877492043486</v>
+        <v>0.075868</v>
       </c>
       <c r="I6">
-        <v>0.5760792750358088</v>
+        <v>0.0001459743247925071</v>
       </c>
       <c r="J6">
-        <v>0.5760792750358088</v>
+        <v>0.0001459743247925071</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>64.0937663472954</v>
+        <v>64.154275</v>
       </c>
       <c r="N6">
-        <v>64.0937663472954</v>
+        <v>192.462825</v>
       </c>
       <c r="O6">
-        <v>0.971972946231151</v>
+        <v>0.9711753522845754</v>
       </c>
       <c r="P6">
-        <v>0.971972946231151</v>
+        <v>0.9711753522845754</v>
       </c>
       <c r="Q6">
-        <v>3530.781326101927</v>
+        <v>1.622418845233333</v>
       </c>
       <c r="R6">
-        <v>3530.781326101927</v>
+        <v>14.6017696071</v>
       </c>
       <c r="S6">
-        <v>0.5599334702192607</v>
+        <v>0.0001417666663048661</v>
       </c>
       <c r="T6">
-        <v>0.5599334702192607</v>
+        <v>0.0001417666663048661</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,185 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.02528933333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.075868</v>
+      </c>
+      <c r="I7">
+        <v>0.0001459743247925071</v>
+      </c>
+      <c r="J7">
+        <v>0.0001459743247925071</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.904109666666667</v>
+      </c>
+      <c r="N7">
+        <v>5.712329</v>
+      </c>
+      <c r="O7">
+        <v>0.02882464771542451</v>
+      </c>
+      <c r="P7">
+        <v>0.02882464771542451</v>
+      </c>
+      <c r="Q7">
+        <v>0.04815366406355556</v>
+      </c>
+      <c r="R7">
+        <v>0.433382976572</v>
+      </c>
+      <c r="S7">
+        <v>4.207658487640975E-06</v>
+      </c>
+      <c r="T7">
+        <v>4.207658487640975E-06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>55.0877492043486</v>
-      </c>
-      <c r="H7">
-        <v>55.0877492043486</v>
-      </c>
-      <c r="I7">
-        <v>0.5760792750358088</v>
-      </c>
-      <c r="J7">
-        <v>0.5760792750358088</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.84815785524599</v>
-      </c>
-      <c r="N7">
-        <v>1.84815785524599</v>
-      </c>
-      <c r="O7">
-        <v>0.02802705376884896</v>
-      </c>
-      <c r="P7">
-        <v>0.02802705376884896</v>
-      </c>
-      <c r="Q7">
-        <v>101.8108564198379</v>
-      </c>
-      <c r="R7">
-        <v>101.8108564198379</v>
-      </c>
-      <c r="S7">
-        <v>0.01614580481654814</v>
-      </c>
-      <c r="T7">
-        <v>0.01614580481654814</v>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>55.182874</v>
+      </c>
+      <c r="H8">
+        <v>165.548622</v>
+      </c>
+      <c r="I8">
+        <v>0.3185249158641322</v>
+      </c>
+      <c r="J8">
+        <v>0.3185249158641322</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>64.154275</v>
+      </c>
+      <c r="N8">
+        <v>192.462825</v>
+      </c>
+      <c r="O8">
+        <v>0.9711753522845754</v>
+      </c>
+      <c r="P8">
+        <v>0.9711753522845754</v>
+      </c>
+      <c r="Q8">
+        <v>3540.21727388635</v>
+      </c>
+      <c r="R8">
+        <v>31861.95546497715</v>
+      </c>
+      <c r="S8">
+        <v>0.3093435473757634</v>
+      </c>
+      <c r="T8">
+        <v>0.3093435473757634</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>55.182874</v>
+      </c>
+      <c r="H9">
+        <v>165.548622</v>
+      </c>
+      <c r="I9">
+        <v>0.3185249158641322</v>
+      </c>
+      <c r="J9">
+        <v>0.3185249158641322</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.904109666666667</v>
+      </c>
+      <c r="N9">
+        <v>5.712329</v>
+      </c>
+      <c r="O9">
+        <v>0.02882464771542451</v>
+      </c>
+      <c r="P9">
+        <v>0.02882464771542451</v>
+      </c>
+      <c r="Q9">
+        <v>105.0742438178487</v>
+      </c>
+      <c r="R9">
+        <v>945.668194360638</v>
+      </c>
+      <c r="S9">
+        <v>0.009181368488368842</v>
+      </c>
+      <c r="T9">
+        <v>0.009181368488368842</v>
       </c>
     </row>
   </sheetData>
